--- a/biology/Botanique/Bois_de_poivre/Bois_de_poivre.xlsx
+++ b/biology/Botanique/Bois_de_poivre/Bois_de_poivre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zanthoxylum heterophyllum, appelé communément Bois de poivre ou Bois de catafaille noir ou  Fagarier hétérophylle[1], est une espèce d'arbre de la famille des Rutacées et du genre Zanthoxylum qui est endémique de l'île Maurice et de la Réunion. Il est appelé ainsi à cause de ses fruits qui ressemblent à des grains de poivre. Il pousse dans les forêts humides ou semi-sèches de basse et moyenne altitude.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zanthoxylum heterophyllum, appelé communément Bois de poivre ou Bois de catafaille noir ou  Fagarier hétérophylle, est une espèce d'arbre de la famille des Rutacées et du genre Zanthoxylum qui est endémique de l'île Maurice et de la Réunion. Il est appelé ainsi à cause de ses fruits qui ressemblent à des grains de poivre. Il pousse dans les forêts humides ou semi-sèches de basse et moyenne altitude.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bois de poivre est un grand arbre atteignant 30 à 50 cm de diamètre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bois de poivre est un grand arbre atteignant 30 à 50 cm de diamètre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1998, l'IUCN a classé le Zanthoxylum heterophyllum en tant qu'espèce en danger critique d'extinction[3]. Sur l'île Maurice, la population est estimée à moins de 50 arbres adultes, fragmentée au Trou d'Eau Douce sur la côté est et à Brise Fer Mountain dans le sud-ouest[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1998, l'IUCN a classé le Zanthoxylum heterophyllum en tant qu'espèce en danger critique d'extinction. Sur l'île Maurice, la population est estimée à moins de 50 arbres adultes, fragmentée au Trou d'Eau Douce sur la côté est et à Brise Fer Mountain dans le sud-ouest.
 </t>
         </is>
       </c>
